--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE44BF5A-0C56-457A-82F2-751393932005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72746204-2C11-48D3-ADFD-26B12FE0F7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6641,14 +6641,14 @@
         <v>15.9</v>
       </c>
       <c r="H101" s="2">
-        <v>19.010000000000002</v>
+        <v>19</v>
       </c>
       <c r="I101" s="2">
         <v>34.9</v>
       </c>
       <c r="J101" s="4">
         <f t="shared" si="7"/>
-        <v>1.0000000000005116E-2</v>
+        <v>0</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="R101" s="4">
         <f t="shared" si="10"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="S101" s="4">
         <f t="shared" si="11"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72746204-2C11-48D3-ADFD-26B12FE0F7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98090C-E009-47E1-A958-00DC9A74E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -815,7 +815,7 @@
   <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5872,13 +5872,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>3190.2</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>3092</v>
+        <v>141.1</v>
       </c>
       <c r="D88" s="2">
-        <v>6282.2</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="6"/>
@@ -5886,13 +5886,13 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2">
-        <v>332.3</v>
+        <v>5.3</v>
       </c>
       <c r="H88" s="2">
-        <v>279.39999999999998</v>
+        <v>5</v>
       </c>
       <c r="I88" s="2">
-        <v>611.70000000000005</v>
+        <v>10.3</v>
       </c>
       <c r="J88" s="4">
         <f t="shared" si="7"/>
@@ -5900,13 +5900,13 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2">
-        <v>3522.5</v>
+        <v>157.6</v>
       </c>
       <c r="M88" s="2">
-        <v>3371.4</v>
+        <v>146.1</v>
       </c>
       <c r="N88" s="2">
-        <v>6893.9</v>
+        <v>303.7</v>
       </c>
       <c r="O88" s="4">
         <f t="shared" si="8"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98090C-E009-47E1-A958-00DC9A74E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700423F4-C0DE-4DA3-8369-91197095BFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="81090" yWindow="0" windowWidth="33885" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
-  <dimension ref="A1:S108"/>
+  <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4532,6 +4532,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="U64" s="2">
+        <f>SUM(N65:N78)</f>
+        <v>10653.899999999998</v>
+      </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
@@ -5292,13 +5296,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>4931</v>
+        <v>436.6</v>
       </c>
       <c r="C78" s="2">
-        <v>4512.1000000000004</v>
+        <v>390.3</v>
       </c>
       <c r="D78" s="2">
-        <v>9443.1</v>
+        <v>826.9</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="6"/>
@@ -5306,13 +5310,13 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
-        <v>674.4</v>
+        <v>53.1</v>
       </c>
       <c r="H78" s="2">
-        <v>536.4</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I78" s="2">
-        <v>1210.8</v>
+        <v>91.9</v>
       </c>
       <c r="J78" s="4">
         <f t="shared" si="7"/>
@@ -5320,13 +5324,13 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2">
-        <v>5605.4</v>
+        <v>489.7</v>
       </c>
       <c r="M78" s="2">
-        <v>5048.5</v>
+        <v>429.1</v>
       </c>
       <c r="N78" s="2">
-        <v>10653.9</v>
+        <v>918.8</v>
       </c>
       <c r="O78" s="4">
         <f t="shared" si="8"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700423F4-C0DE-4DA3-8369-91197095BFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F55834-85D2-46E7-9DBA-5891F573DF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81090" yWindow="0" windowWidth="33885" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -814,8 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
